--- a/biology/Zoologie/Faune_des_Alpes/Faune_des_Alpes.xlsx
+++ b/biology/Zoologie/Faune_des_Alpes/Faune_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alpes connaissent une faune sauvage diverse et variée qui a su s'adapter aux reliefs accidentés et aux altitudes extrêmes. Du pied des Alpes à son sommet le plus haut qu'est le Mont-Blanc, la faune varie suivant l'altitude. Cette chaine de montagnes, au cœur de l'Europe, est le massif montagneux important le plus urbanisé au monde, il est pourtant encore riche en biodiversité. Certaines espèces sont inféodées aux milieux d'altitude, d'autres ont été contraintes à s'y réfugier en raison de la pression qu'exerce l'homme sur leurs biotopes d'origine. 
 </t>
@@ -513,17 +525,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Insectes
-Rosalie des Alpes (Rosalia alpina)
-Mammifères
-Ordre des Artiodactyles
-Bouquetin des Alpes (Capra ibex)
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rosalie des Alpes (Rosalia alpina)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ordre des Artiodactyles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bouquetin des Alpes (Capra ibex)
 Cerf élaphe (Cervus elaphus)
 Chamois (Rupicapra rupicapra)
 Chevreuil (Capreolus capreolus)
-Mouflon (Ovis orientalis musimon)
-Ordre des Carnivores
-Belette (Mustela nivalis)
+Mouflon (Ovis orientalis musimon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ordre des Carnivores</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Belette (Mustela nivalis)
 Blaireau européen (Meles meles)
 Chat sauvage d'Europe (Felis silvestris silvestris)
 Fouine (Martes foina)
@@ -533,30 +625,182 @@
 Lynx (Lynx lynx)
 Martre (Martes martes)
 Putois (Mustela putorius)
-Renard roux (Vulpes vulpes)
-Ordre des Chiroptères
-Molosse de Cestoni (Tadarida teniotis)
+Renard roux (Vulpes vulpes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ordre des Chiroptères</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Molosse de Cestoni (Tadarida teniotis)
 Murin de Brandt (Myotis brandti)
 Murin à moustaches (Myotis mystacinus)
 Murin de Natterer (Myotis nattereri)
 Oreillard brun (Plecotus auritus)
 Sérotine boréale (Eptesicus nilssoni)
 Sérotine bicolore (Vespertilio murinus)
-Vespère de Savi (Hypsugo savii)
-Ordre des Insectivores
-Hérisson d'Europe (Erinaceus europaeus)
+Vespère de Savi (Hypsugo savii)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ordre des Insectivores</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hérisson d'Europe (Erinaceus europaeus)
 Musaraigne alpine (Sorex alpinus)
 Musaraigne aquatique (Neomys fodiens))
 Musaraigne carrelet (Sorex araneus)
 Musaraigne de Miller (Neomys anomalus)
 Musaraigne du Valais (Sorex antinorii)
 Musaraigne pygmée (Sorex minutus)
-Taupe d'Europe (Talpa europaea)
-Ordre des Lagomorphes
-Lièvre brun (Lepus europaeus)
-Lièvre variable (Lepus timidus)
-Ordre des Rongeurs
-Campagnol agreste (Microtus agrestis)
+Taupe d'Europe (Talpa europaea)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ordre des Lagomorphes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lièvre brun (Lepus europaeus)
+Lièvre variable (Lepus timidus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ordre des Rongeurs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Campagnol agreste (Microtus agrestis)
 Campagnol des champs (Microtus arvalis)
 Campagnol de Fatio (Pitymys multiplex)
 Campagnol des neiges (Chionomys nivalis)
@@ -573,24 +817,213 @@
 Muscardin (Muscardinus avellanarius)
 Rat noir (Rattus rattus)
 Souris domestique (Mus domesticus)
-Surmulot (Rattus norvegicus)
-Oiseaux
-Ordre des Apodiformes
-Martinet noir (Apus apus)
-Martinet à ventre blanc (Apus melba)
-Ordre des Charadriiformes
-Bécasse des bois (Scolopax rusticola)
+Surmulot (Rattus norvegicus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ordre des Apodiformes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Martinet noir (Apus apus)
+Martinet à ventre blanc (Apus melba)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ordre des Charadriiformes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bécasse des bois (Scolopax rusticola)
 Chevalier guignette (Actitis hypoleucos)
 Pluvier guignard (Charadrius morinellus)
 Mouette rieuse (Chroicocephalus ridibundus)
-Goéland leucophée (Larus cachinnans)
-Ordre des Columbiformes
-Pigeon ramier (Columba palumbus)
-Tourterelle turque (Streptopelia decaocto)
-Ordre des Cuculiformes
-Coucou gris (Cuculus canorus)
-Ordre des Accipitriformes
-Aigle royal (Aquila Chrysaetos)
+Goéland leucophée (Larus cachinnans)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ordre des Columbiformes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pigeon ramier (Columba palumbus)
+Tourterelle turque (Streptopelia decaocto)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ordre des Cuculiformes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Coucou gris (Cuculus canorus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ordre des Accipitriformes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aigle royal (Aquila Chrysaetos)
 Autour des palombes (Accipiter gentilis)
 Bondrée apivore (Pernis apivorus)
 Buse variable (Buteo buteo)
@@ -598,21 +1031,173 @@
 Epervier d'Europe (Accipiter nisus)
 Gypaète barbu (Gypaetus barbatus)
 Milan noir (Milvus migrans)
-Vautour fauve (Gyps fulvus)
-Ordre des Falconiformes
-Faucon crécerelle (Falco tinnunculus)
-Faucon pèlerin (Falco peregrinus)
-Ordre des Galliformes
-Gélinotte des bois (Bonasa bonasia)
+Vautour fauve (Gyps fulvus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ordre des Falconiformes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Faucon crécerelle (Falco tinnunculus)
+Faucon pèlerin (Falco peregrinus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ordre des Galliformes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Gélinotte des bois (Bonasa bonasia)
 Grand Tétras (Tetrao urogallus)
 Lagopède alpin (Lagopus mutus)
 Perdrix bartavelle (Alectoris graeca)
-Tétras lyre (Tetrao tetrix)
-Ordre des Gruiformes
-Gallinule poule-d'eau (Gallinula chloropus)
-Râle d'eau (Rallus aquaticus)
-Ordre des Passériformes
-A - C
+Tétras lyre (Tetrao tetrix)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ordre des Gruiformes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Gallinule poule-d'eau (Gallinula chloropus)
+Râle d'eau (Rallus aquaticus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ordre des Passériformes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A - C
 Accenteur alpin (Prunella collaris)
 Accenteur mouchet (Prunella modularis)
 Alouette des champs (Alauda arvensis)
@@ -668,24 +1253,173 @@
 Tichodrome échelette (Tichodroma muraria)
 Traquet motteux (Oenanthe oenanthe)
 Troglodyte mignon (Troglodytes troglodytes)
-Venturon montagnard (Carduelis citrinella)
-Ordre des Piciformes
-Pic vert (Picus viridis)
+Venturon montagnard (Carduelis citrinella)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Ordre des Piciformes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pic vert (Picus viridis)
 Pic épeiche (Dendrocopos major)
 Pic noir (Dryocopus martius)
 Pic tridactyle (Picoides tridactylus)
-Torcol fourmilier (Jynx torquilla)
-Ordre des Strigiformes
-Chevêchette d'Europe (Glaucidium passerinum)
+Torcol fourmilier (Jynx torquilla)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Ordre des Strigiformes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Chevêchette d'Europe (Glaucidium passerinum)
 Chouette hulotte (Strix aluco)
 Chouette de Tengmalm (Aegolius funereus)
 Grand-duc d'Europe (Bubo bubo)
 Hibou moyen-duc (Asio otus)
-Chouette effraie (Tyto alba)
-Reptiles
-Selon le WWF, les Alpes abritent 15 espèces de reptiles sans qu'aucune ne soit strictement alpine[1].
-Ordre des Squamates
-Sous-ordre des Ophidiens
+Chouette effraie (Tyto alba)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le WWF, les Alpes abritent 15 espèces de reptiles sans qu'aucune ne soit strictement alpine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ordre des Squamates</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sous-ordre des Ophidiens
 Couleuvre d'Esculape (Zamenis longissimus)
 Couleuvre à collier (Natrix natrix)
 Coronelle lisse (Coronella austriaca)
@@ -696,15 +1430,126 @@
 Lézard des murailles (Podarcis muralis)
 Lézard vert (occidentale) (Lacerta bilineata )
 Lézard vivipare (Lacerta (Zootoca) vivipara)
-Orvet fragile (Anguis fragilis)
-Amphibiens
-Les Alpes comptent 21 espèces d’amphibiens. Hormis la Salamandre de Lanza, aucune de ces espèces n'est exclusive aux Alpes[1]. 
-Ordre des Anoures
-Crapaud commun (Bufo bufo)
+Orvet fragile (Anguis fragilis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Alpes comptent 21 espèces d’amphibiens. Hormis la Salamandre de Lanza, aucune de ces espèces n'est exclusive aux Alpes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ordre des Anoures</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Crapaud commun (Bufo bufo)
 Grenouille rousse (Rana temporaria)
-Sonneur à ventre jaune (Bombina variegata)
-Ordre des Urodèles
-Salamandre de Lanza (Salamandra lanzai)
+Sonneur à ventre jaune (Bombina variegata)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des animaux alpins</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ordre des Urodèles</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Salamandre de Lanza (Salamandra lanzai)
 Salamandre tachetée (Salamandra salamandra)
 Salamandre noire (Salamandra atra)
 Triton alpestre (Triturus alpestris)</t>
